--- a/generated_docs/WR_89877202_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89877202_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I37"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4469.809999999999</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,28 +1037,28 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>ARM-10SF-GN-TL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>ARM,10ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-10SF-GN-TL</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,10ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,32 +1169,32 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1203,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,32 +1237,32 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1339,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1373,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,21 +1441,157 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="inlineStr">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>SAA-CL-336</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>SAA,Susp Clamp Light Angle,336</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H37" s="16" t="n">
-        <v>4469.81</v>
+      <c r="H41" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1465,12 +1601,12 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89877202_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89877202_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>4469.809999999999</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P77</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="24">
@@ -1037,28 +1033,28 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ARM-10SF-GN-TL</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ARM,10ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1063,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>ARM-10SF-GN-TL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>ARM,10ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,32 +1165,32 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1199,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,32 +1233,32 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1335,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1369,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1403,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,157 +1437,21 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>SAA-CL-336</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="15" t="inlineStr">
+      <c r="A37" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H41" s="16" t="n">
-        <v>0</v>
+      <c r="H37" s="16" t="n">
+        <v>4469.81</v>
       </c>
     </row>
   </sheetData>
@@ -1601,12 +1461,12 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A41:G41"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
